--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IUT\php_wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9AA3446-0A2D-4975-9391-A7DD76897C3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6553395-BEB2-4A68-A398-866439621303}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850" xr2:uid="{8097ED8B-7E81-41F2-A761-6C3B535BEA5B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Nom</t>
   </si>
@@ -58,6 +58,93 @@
   </si>
   <si>
     <t>Affichage simple : Nom + Description + expiration + état (publique ou privée) + date de création + dernière modification</t>
+  </si>
+  <si>
+    <t>Réserver un item</t>
+  </si>
+  <si>
+    <t>Ajouter un message avec sa réservation</t>
+  </si>
+  <si>
+    <t>Ajouter un message sur une liste</t>
+  </si>
+  <si>
+    <t>Créer une liste</t>
+  </si>
+  <si>
+    <t>Modifier les informations d'une de ses listes</t>
+  </si>
+  <si>
+    <t>Ajouter des items</t>
+  </si>
+  <si>
+    <t>Modifier un item</t>
+  </si>
+  <si>
+    <t>Supprimer un item</t>
+  </si>
+  <si>
+    <t>Rajouter une image à un item</t>
+  </si>
+  <si>
+    <t>Modifier une image d'un item</t>
+  </si>
+  <si>
+    <t>Supprimer une image d'un item</t>
+  </si>
+  <si>
+    <t>Partager une liste</t>
+  </si>
+  <si>
+    <t>Créer un compte</t>
+  </si>
+  <si>
+    <t>S'authentifier</t>
+  </si>
+  <si>
+    <t>Modifier son compte</t>
+  </si>
+  <si>
+    <t>Rendre une liste publique</t>
+  </si>
+  <si>
+    <t>Afficher les listes de souhaits publiques</t>
+  </si>
+  <si>
+    <t>Créer une cagnotte sur un item</t>
+  </si>
+  <si>
+    <t>Participer à une cagnotte</t>
+  </si>
+  <si>
+    <t>Uploader une image</t>
+  </si>
+  <si>
+    <t>Créer un compte participant</t>
+  </si>
+  <si>
+    <t>Afficher la liste des créateurs</t>
+  </si>
+  <si>
+    <t>Supprimer son compte</t>
+  </si>
+  <si>
+    <t>Joindre des listes à son compte</t>
+  </si>
+  <si>
+    <t>Création d'une page 404</t>
+  </si>
+  <si>
+    <t>Création d'une page 403</t>
+  </si>
+  <si>
+    <t>Consulter les réservations avant échéance</t>
+  </si>
+  <si>
+    <t>Consulter les réservations après échéance</t>
+  </si>
+  <si>
+    <t>Supprimer une liste</t>
   </si>
 </sst>
 </file>
@@ -409,16 +496,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFE3CB8-0F2F-4368-A610-94D1436DBC6B}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.08984375" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="38.36328125" customWidth="1"/>
     <col min="3" max="3" width="102.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -461,6 +548,238 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IUT\php_wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6553395-BEB2-4A68-A398-866439621303}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF500E8-A8FF-40F1-B955-B45A8C66DA64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850" xr2:uid="{8097ED8B-7E81-41F2-A761-6C3B535BEA5B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Nom</t>
   </si>
@@ -145,6 +145,19 @@
   </si>
   <si>
     <t>Supprimer une liste</t>
+  </si>
+  <si>
+    <t>Nom + Description + Image + Tarif + Lien externe
+Réservation ( progress bar correspondant à l'avancement de la cagnotte) + Boutons (modification + Suppression)</t>
+  </si>
+  <si>
+    <t>Bouton réserver lors de l'affichage d'une liste publique</t>
+  </si>
+  <si>
+    <t>Nom du créateur + Titre + Description + Date d'expiration + Confidentialité (privée ou publique)</t>
+  </si>
+  <si>
+    <t>Nom du créateur + Titre + Description + Date d'expiration + Confidentialité (privée ou publique) + informations (dernière modification, date de création)</t>
   </si>
 </sst>
 </file>
@@ -180,8 +193,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,15 +514,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFE3CB8-0F2F-4368-A610-94D1436DBC6B}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.08984375" customWidth="1"/>
     <col min="2" max="2" width="38.36328125" customWidth="1"/>
-    <col min="3" max="3" width="102.36328125" customWidth="1"/>
+    <col min="3" max="3" width="138" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -547,6 +563,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -555,6 +574,9 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -579,6 +601,9 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -586,6 +611,9 @@
       </c>
       <c r="B8" t="s">
         <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IUT\php_wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF500E8-A8FF-40F1-B955-B45A8C66DA64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51AA97C-F613-4CD8-A38F-B2D77A080676}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850" xr2:uid="{8097ED8B-7E81-41F2-A761-6C3B535BEA5B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Nom</t>
   </si>
@@ -158,6 +158,49 @@
   </si>
   <si>
     <t>Nom du créateur + Titre + Description + Date d'expiration + Confidentialité (privée ou publique) + informations (dernière modification, date de création)</t>
+  </si>
+  <si>
+    <t>Titre + Description + choix de l'image (aucune, lien, upload) + lien (vers une page détaillant l'item) + Tarif + Cagnotte</t>
+  </si>
+  <si>
+    <t>Idem</t>
+  </si>
+  <si>
+    <t>Bouton supprimer lors de l'affichage détaillé de la liste qui permet de supprimer l'item</t>
+  </si>
+  <si>
+    <t>Possibilité d'ajouter une image par upload ou avec un lien</t>
+  </si>
+  <si>
+    <t>Possibilité de modifier une image par upload ou avec un lien ou de ne plus mettre d'image</t>
+  </si>
+  <si>
+    <t>Bouton supprimer l'image lors de l'affichage détaillé de la liste qui permet de supprimer l'image de l'item concerné</t>
+  </si>
+  <si>
+    <t>Une fois la liste validée, un url de partage est généré, le créateur peut donc la partager</t>
+  </si>
+  <si>
+    <t>Une fois la liste validée, le créateur peut avoir accès à quelques statistiques : pourcentage de réservations de la liste + temps écoulé (en pourcentage) 
+depuis la création de la liste + nombre de contributeurs + nombre d'item dans la liste + prix total de la liste</t>
+  </si>
+  <si>
+    <t>Après échéance, le créateur aura accès aux contributeurs de la liste et les messsages associés à la liste</t>
+  </si>
+  <si>
+    <t>Nom d'utilisateur + prénom + nom + mot de passe</t>
+  </si>
+  <si>
+    <t>Un utilisateur déconnecté mais inscrit peut s'authentifier</t>
+  </si>
+  <si>
+    <t>Un utilisateur peut modifier toutes les informations liés à son compte (nom d'utilisateur, nom, prénom , mot de passe)</t>
+  </si>
+  <si>
+    <t>Peut choisir la confidentialité de la liste lors de sa création ou lors de sa modification</t>
+  </si>
+  <si>
+    <t>Tous les utilisateurs peuvent avoir accès aux listes publiques exceptée la sienne s'il en a crée</t>
   </si>
 </sst>
 </file>
@@ -514,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFE3CB8-0F2F-4368-A610-94D1436DBC6B}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,6 +666,9 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -631,6 +677,9 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -639,6 +688,9 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -647,6 +699,9 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -655,6 +710,9 @@
       <c r="B13" t="s">
         <v>18</v>
       </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -663,6 +721,9 @@
       <c r="B14" t="s">
         <v>19</v>
       </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -671,64 +732,88 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -736,7 +821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -744,7 +829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -752,7 +837,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -760,7 +845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -768,7 +853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -776,7 +861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -784,7 +869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -792,7 +877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -800,7 +885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
